--- a/Data y gráficos/Gráficos de Tesis/Sin tendencia/Quitar tendencia.xlsx
+++ b/Data y gráficos/Gráficos de Tesis/Sin tendencia/Quitar tendencia.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29016"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,10 +15,21 @@
   <sheets>
     <sheet name="Niveles" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -49,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,7 +155,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -446,9 +457,9 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="4">
         <v>36981</v>
       </c>
@@ -488,7 +499,7 @@
         <v>1634.9921533675272</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="4">
         <v>37072</v>
       </c>
@@ -508,7 +519,7 @@
         <v>1649.7187809215602</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="4">
         <v>37164</v>
       </c>
@@ -528,7 +539,7 @@
         <v>1621.5073788774514</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>37256</v>
       </c>
@@ -548,7 +559,7 @@
         <v>1598.4070737449613</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="4">
         <v>37346</v>
       </c>
@@ -568,7 +579,7 @@
         <v>1567.9658123523138</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>37437</v>
       </c>
@@ -588,7 +599,7 @@
         <v>1547.6256454868635</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>37529</v>
       </c>
@@ -608,7 +619,7 @@
         <v>1566.9054679546928</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>37621</v>
       </c>
@@ -628,7 +639,7 @@
         <v>1563.0533383065501</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="4">
         <v>37711</v>
       </c>
@@ -648,7 +659,7 @@
         <v>1675.6794435431195</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="4">
         <v>37802</v>
       </c>
@@ -668,7 +679,7 @@
         <v>1870.1104939464858</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="4">
         <v>37894</v>
       </c>
@@ -688,7 +699,7 @@
         <v>1830.2562651077567</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="4">
         <v>37986</v>
       </c>
@@ -708,7 +719,7 @@
         <v>1813.4135954227024</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="4">
         <v>38077</v>
       </c>
@@ -728,7 +739,7 @@
         <v>1815.4310645672674</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="4">
         <v>38168</v>
       </c>
@@ -748,7 +759,7 @@
         <v>1828.088526614376</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="4">
         <v>38260</v>
       </c>
@@ -768,7 +779,7 @@
         <v>1814.3383173317623</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="4">
         <v>38352</v>
       </c>
@@ -788,7 +799,7 @@
         <v>1787.0410644968376</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="4">
         <v>38442</v>
       </c>
@@ -808,7 +819,7 @@
         <v>1918.1697112097952</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="4">
         <v>38533</v>
       </c>
@@ -828,7 +839,7 @@
         <v>1911.1449848192315</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="4">
         <v>38625</v>
       </c>
@@ -848,7 +859,7 @@
         <v>1882.9165684350046</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="4">
         <v>38717</v>
       </c>
@@ -868,7 +879,7 @@
         <v>1919.2270321497115</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="4">
         <v>38807</v>
       </c>
@@ -888,7 +899,7 @@
         <v>1932.1861604783887</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="4">
         <v>38898</v>
       </c>
@@ -908,7 +919,7 @@
         <v>1996.8659096417043</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="4">
         <v>38990</v>
       </c>
@@ -928,7 +939,7 @@
         <v>2061.5438171696146</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="4">
         <v>39082</v>
       </c>
@@ -948,7 +959,7 @@
         <v>2068.0355609353132</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="4">
         <v>39172</v>
       </c>
@@ -968,7 +979,7 @@
         <v>2075.9650040472056</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="4">
         <v>39263</v>
       </c>
@@ -988,7 +999,7 @@
         <v>2054.1563585493905</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="4">
         <v>39355</v>
       </c>
@@ -1008,7 +1019,7 @@
         <v>2030.8010932105724</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="4">
         <v>39447</v>
       </c>
@@ -1028,7 +1039,7 @@
         <v>2097.8749590265088</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="4">
         <v>39538</v>
       </c>
@@ -1048,7 +1059,7 @@
         <v>2038.9127225690484</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="4">
         <v>39629</v>
       </c>
@@ -1068,7 +1079,7 @@
         <v>2005.603995073873</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="4">
         <v>39721</v>
       </c>
@@ -1088,7 +1099,7 @@
         <v>2000.5722267971771</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="4">
         <v>39813</v>
       </c>
@@ -1108,7 +1119,7 @@
         <v>2025.6141950691947</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="4">
         <v>39903</v>
       </c>
@@ -1128,7 +1139,7 @@
         <v>2046.1401854151727</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="4">
         <v>39994</v>
       </c>
@@ -1148,7 +1159,7 @@
         <v>2035.5489144615658</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="4">
         <v>40086</v>
       </c>
@@ -1168,7 +1179,7 @@
         <v>2041.8516756471909</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="4">
         <v>40178</v>
       </c>
@@ -1188,7 +1199,7 @@
         <v>2042.8510169335616</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="4">
         <v>40268</v>
       </c>
@@ -1208,7 +1219,7 @@
         <v>2072.1378218055211</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="4">
         <v>40359</v>
       </c>
@@ -1228,7 +1239,7 @@
         <v>2055.2147589731026</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="4">
         <v>40451</v>
       </c>
@@ -1248,7 +1259,7 @@
         <v>2049.8397649559702</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="4">
         <v>40543</v>
       </c>
@@ -1268,7 +1279,7 @@
         <v>2084.3197002151851</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="4">
         <v>40633</v>
       </c>
@@ -1288,7 +1299,7 @@
         <v>2064.9944646009349</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="4">
         <v>40724</v>
       </c>
@@ -1308,7 +1319,7 @@
         <v>2082.3981815775282</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="4">
         <v>40816</v>
       </c>
@@ -1328,7 +1339,7 @@
         <v>2099.1478515076597</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="4">
         <v>40908</v>
       </c>
@@ -1348,7 +1359,7 @@
         <v>2080.2895031228877</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="4">
         <v>40999</v>
       </c>
@@ -1368,7 +1379,7 @@
         <v>2083.6103020363844</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="4">
         <v>41090</v>
       </c>
@@ -1388,7 +1399,7 @@
         <v>2081.0981292150141</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="4">
         <v>41182</v>
       </c>
@@ -1408,7 +1419,7 @@
         <v>2084.1940561202487</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="4">
         <v>41274</v>
       </c>
@@ -1428,7 +1439,7 @@
         <v>2087.6969666533423</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="4">
         <v>41364</v>
       </c>
@@ -1448,7 +1459,7 @@
         <v>2079.2593466581961</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="4">
         <v>41455</v>
       </c>
@@ -1468,7 +1479,7 @@
         <v>2066.8071684739029</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="4">
         <v>41547</v>
       </c>
@@ -1488,7 +1499,7 @@
         <v>2075.7140556952404</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="4">
         <v>41639</v>
       </c>
@@ -1508,7 +1519,7 @@
         <v>2076.8616726486803</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="4">
         <v>41729</v>
       </c>
@@ -1528,7 +1539,7 @@
         <v>2073.6687250313139</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="4">
         <v>41820</v>
       </c>
@@ -1548,7 +1559,7 @@
         <v>2068.4339189684792</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="4">
         <v>41912</v>
       </c>
@@ -1568,7 +1579,7 @@
         <v>2076.3853018355207</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="4">
         <v>42004</v>
       </c>
@@ -1588,7 +1599,7 @@
         <v>2084.6257123748851</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="4">
         <v>42094</v>
       </c>
@@ -1608,7 +1619,7 @@
         <v>2071.4658116789765</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="4">
         <v>42185</v>
       </c>
@@ -1628,7 +1639,7 @@
         <v>2043.1236001432251</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="4">
         <v>42277</v>
       </c>
@@ -1648,7 +1659,7 @@
         <v>2045.9536166985599</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="4">
         <v>42369</v>
       </c>
@@ -1668,7 +1679,7 @@
         <v>2036.8277360462005</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="4">
         <v>42460</v>
       </c>
@@ -1688,7 +1699,7 @@
         <v>2049.3084721720134</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="4">
         <v>42551</v>
       </c>
@@ -1708,7 +1719,7 @@
         <v>2033.8609156897558</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="4">
         <v>42643</v>
       </c>
@@ -1728,7 +1739,7 @@
         <v>2015.0807299376975</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="4">
         <v>42735</v>
       </c>
@@ -1748,7 +1759,7 @@
         <v>2020.0175213618611</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="4">
         <v>42825</v>
       </c>
@@ -1768,7 +1779,7 @@
         <v>2013.073766114846</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="4">
         <v>42916</v>
       </c>
@@ -1788,7 +1799,7 @@
         <v>1987.845627153137</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="4">
         <v>43008</v>
       </c>
@@ -1808,7 +1819,7 @@
         <v>1983.5121666662453</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="4">
         <v>43100</v>
       </c>
@@ -1828,7 +1839,7 @@
         <v>2005.0757543771213</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="4">
         <v>43190</v>
       </c>
@@ -1848,7 +1859,7 @@
         <v>2014.1491810931366</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="4">
         <v>43281</v>
       </c>
@@ -1868,7 +1879,7 @@
         <v>2002.6103874352857</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="4">
         <v>43373</v>
       </c>
@@ -1888,7 +1899,7 @@
         <v>1995.541183268954</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="4">
         <v>43465</v>
       </c>
@@ -1908,7 +1919,7 @@
         <v>2004.4711673515137</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="4">
         <v>43555</v>
       </c>
@@ -1928,7 +1939,7 @@
         <v>1983.3271620585847</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="4">
         <v>43646</v>
       </c>
@@ -1948,7 +1959,7 @@
         <v>1994.755665427442</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="4">
         <v>43738</v>
       </c>
@@ -1968,7 +1979,7 @@
         <v>2004.6324120952465</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="4">
         <v>43830</v>
       </c>
@@ -1988,7 +1999,7 @@
         <v>2020.6809373855529</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="4">
         <v>43921</v>
       </c>
@@ -2008,7 +2019,7 @@
         <v>2017.5787742723749</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="4">
         <v>44012</v>
       </c>
@@ -2028,7 +2039,7 @@
         <v>2083.5679669143451</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="4">
         <v>44104</v>
       </c>
@@ -2048,7 +2059,7 @@
         <v>2095.0532813496484</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="4">
         <v>44196</v>
       </c>
@@ -2068,7 +2079,7 @@
         <v>2103.571313851498</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="4">
         <v>44286</v>
       </c>
@@ -2088,7 +2099,7 @@
         <v>2109.1552485303932</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="4">
         <v>44377</v>
       </c>
@@ -2108,7 +2119,7 @@
         <v>2115.3180360106539</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="4">
         <v>44469</v>
       </c>
@@ -2128,7 +2139,7 @@
         <v>2128.2598685204266</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="4">
         <v>44561</v>
       </c>
@@ -2148,7 +2159,7 @@
         <v>2112.9998358642051</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="4">
         <v>44651</v>
       </c>
@@ -2168,7 +2179,7 @@
         <v>2091.7114839426208</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="4">
         <v>44742</v>
       </c>
@@ -2188,7 +2199,7 @@
         <v>2071.8389351351484</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="4">
         <v>44834</v>
       </c>
@@ -2208,13 +2219,13 @@
         <v>2073.5906497738374</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
